--- a/CrossReferenceMatrix.xlsx
+++ b/CrossReferenceMatrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Academics\2nd year\se\Youtube clone\CSAICSABTeam007\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5AD8FC-1A11-4642-8861-B2CACFB3AB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766CE153-41E2-486F-A6BD-E2085ED25EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9102599A-3A96-4FFD-962A-5BD2117DEB19}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>Stakeholder</t>
   </si>
@@ -235,6 +235,27 @@
   </si>
   <si>
     <t>Architecture Topic</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Creator Features</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>Viewer Features</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>Advertiser Features</t>
+  </si>
+  <si>
+    <t>Container Diagrams</t>
   </si>
 </sst>
 </file>
@@ -619,7 +640,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,6 +709,12 @@
       <c r="E2" t="s">
         <v>40</v>
       </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
       <c r="H2" t="s">
         <v>43</v>
       </c>
@@ -708,6 +735,12 @@
       <c r="E3" t="s">
         <v>30</v>
       </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
       <c r="H3" t="s">
         <v>49</v>
       </c>
@@ -728,6 +761,12 @@
       <c r="E4" t="s">
         <v>29</v>
       </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
@@ -748,6 +787,12 @@
       <c r="E5" t="s">
         <v>32</v>
       </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
       <c r="H5" t="s">
         <v>42</v>
       </c>
@@ -768,6 +813,12 @@
       <c r="E6" t="s">
         <v>31</v>
       </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" t="s">
         <v>51</v>
       </c>
@@ -791,6 +842,12 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
       <c r="H8" t="s">
         <v>41</v>
       </c>
@@ -811,6 +868,12 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
       <c r="H9" t="s">
         <v>53</v>
       </c>
@@ -831,6 +894,12 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
       <c r="H10" t="s">
         <v>55</v>
       </c>
@@ -851,6 +920,12 @@
       <c r="E11" t="s">
         <v>32</v>
       </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
       <c r="H11" t="s">
         <v>42</v>
       </c>
@@ -874,6 +949,12 @@
       <c r="E13" t="s">
         <v>34</v>
       </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
       <c r="H13" t="s">
         <v>61</v>
       </c>
@@ -894,6 +975,12 @@
       <c r="E14" t="s">
         <v>33</v>
       </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
       <c r="H14" t="s">
         <v>59</v>
       </c>
@@ -914,6 +1001,12 @@
       <c r="E15" t="s">
         <v>35</v>
       </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
       <c r="H15" t="s">
         <v>57</v>
       </c>
@@ -937,6 +1030,12 @@
       <c r="E17" t="s">
         <v>39</v>
       </c>
+      <c r="F17">
+        <v>1.2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
       <c r="H17">
         <v>7.2</v>
       </c>
@@ -957,6 +1056,12 @@
       <c r="E18" t="s">
         <v>37</v>
       </c>
+      <c r="F18">
+        <v>1.2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
       <c r="H18">
         <v>7.4</v>
       </c>
@@ -977,6 +1082,12 @@
       <c r="E19" t="s">
         <v>36</v>
       </c>
+      <c r="F19">
+        <v>1.2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
       <c r="H19">
         <v>7.1</v>
       </c>
@@ -997,6 +1108,12 @@
       <c r="E20" t="s">
         <v>38</v>
       </c>
+      <c r="F20">
+        <v>1.2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
       <c r="H20">
         <v>7.5</v>
       </c>
@@ -1016,6 +1133,12 @@
       </c>
       <c r="E21" t="s">
         <v>39</v>
+      </c>
+      <c r="F21">
+        <v>1.2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
       </c>
       <c r="H21">
         <v>7.3</v>

--- a/CrossReferenceMatrix.xlsx
+++ b/CrossReferenceMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Academics\2nd year\se\Youtube clone\CSAICSABTeam007\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766CE153-41E2-486F-A6BD-E2085ED25EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316156BB-3C04-47FD-9CD2-B8E6753CCCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9102599A-3A96-4FFD-962A-5BD2117DEB19}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>Stakeholder</t>
   </si>
@@ -256,6 +256,30 @@
   </si>
   <si>
     <t>Container Diagrams</t>
+  </si>
+  <si>
+    <t>User - Sign In to Google Account</t>
+  </si>
+  <si>
+    <t>Content Creator - Video Upload</t>
+  </si>
+  <si>
+    <t>User -Watch and Interact with Video</t>
+  </si>
+  <si>
+    <t>User - Subscribe to a Channel</t>
+  </si>
+  <si>
+    <t>Content Creator - View Analytics</t>
+  </si>
+  <si>
+    <t>Content Creator - Edit Video</t>
+  </si>
+  <si>
+    <t>Content Creator - View Comments</t>
+  </si>
+  <si>
+    <t>Monetize Video</t>
   </si>
 </sst>
 </file>
@@ -639,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E1E222-6F39-489C-868A-954950CBC8CD}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,7 +679,7 @@
     <col min="8" max="8" width="21.21875" customWidth="1"/>
     <col min="9" max="9" width="33.21875" customWidth="1"/>
     <col min="10" max="10" width="19.44140625" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -721,6 +745,12 @@
       <c r="I2" t="s">
         <v>44</v>
       </c>
+      <c r="J2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3">
@@ -773,6 +803,12 @@
       <c r="I4" t="s">
         <v>47</v>
       </c>
+      <c r="J4">
+        <v>1.3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5">
@@ -799,6 +835,12 @@
       <c r="I5" t="s">
         <v>50</v>
       </c>
+      <c r="J5">
+        <v>1.3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6">
@@ -825,6 +867,12 @@
       <c r="I6" t="s">
         <v>52</v>
       </c>
+      <c r="J6">
+        <v>1.4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -854,6 +902,12 @@
       <c r="I8" t="s">
         <v>48</v>
       </c>
+      <c r="J8">
+        <v>1.2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -880,6 +934,12 @@
       <c r="I9" t="s">
         <v>54</v>
       </c>
+      <c r="J9">
+        <v>2.1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10">
@@ -906,6 +966,12 @@
       <c r="I10" t="s">
         <v>56</v>
       </c>
+      <c r="J10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11">
@@ -932,6 +998,12 @@
       <c r="I11" t="s">
         <v>50</v>
       </c>
+      <c r="J11">
+        <v>2.4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -960,6 +1032,12 @@
       </c>
       <c r="I13" t="s">
         <v>62</v>
+      </c>
+      <c r="J13">
+        <v>2.6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
